--- a/web/admin/upload-example.xlsx
+++ b/web/admin/upload-example.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freshmansystem\freshmansystem\web\admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="10755" windowHeight="12120"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="10752" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,14 +99,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>版主联系方式</t>
+    <t>班助联系方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,6 +163,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -205,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +246,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +298,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,16 +493,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +577,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,7 +590,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
